--- a/arquivo.xlsx
+++ b/arquivo.xlsx
@@ -429,52 +429,52 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Matr.</t>
+          <t>MATR.</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Ag.</t>
+          <t>AG.</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Tp.</t>
+          <t>TP.</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Contrato</t>
+          <t>CONTRATO</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Et.</t>
+          <t>ET.</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Dt. Contrato</t>
+          <t>DT. CONTRATO</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Dt. Prest. In.</t>
+          <t>DT. PREST. IN.</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Dt. Ater.</t>
+          <t>DT. ATER.</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>Valor Base DFI</t>
+          <t>VALOR BASE DFI</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>Saldo Devedor</t>
+          <t>SALDO DEVEDOR</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
